--- a/Spatial/PDFs/plot_Vars_wrt_centers_AD_15_Data_Percent_PCs.xlsx
+++ b/Spatial/PDFs/plot_Vars_wrt_centers_AD_15_Data_Percent_PCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B08B3DF0-51FA-4C6C-9807-29D2E0CC0C95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E0E349-EABD-4B68-9F4C-F6402BCF2FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{CCD2A77E-FBB5-497E-8E4C-20C112F2E64D}"/>
   </bookViews>
@@ -508,13 +508,13 @@
         <v>65.714285714285708</v>
       </c>
       <c r="K2">
-        <v>18.571428571428573</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>11.428571428571429</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="M2">
-        <v>4.2857142857142856</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -534,28 +534,28 @@
         <v>5.1282051282051286</v>
       </c>
       <c r="F3">
-        <v>39.436619718309856</v>
+        <v>40.845070422535208</v>
       </c>
       <c r="G3">
-        <v>32.394366197183096</v>
+        <v>30.985915492957748</v>
       </c>
       <c r="H3">
-        <v>15.492957746478874</v>
+        <v>16.901408450704224</v>
       </c>
       <c r="I3">
-        <v>12.67605633802817</v>
+        <v>11.267605633802816</v>
       </c>
       <c r="J3">
         <v>29.333333333333332</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="L3">
         <v>29.333333333333332</v>
       </c>
       <c r="M3">
-        <v>29.333333333333332</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.285714285714286</v>
+        <v>19.047619047619047</v>
       </c>
       <c r="G4">
-        <v>66.666666666666671</v>
+        <v>61.904761904761905</v>
       </c>
       <c r="H4">
         <v>14.285714285714286</v>
@@ -616,10 +616,10 @@
         <v>11.111111111111111</v>
       </c>
       <c r="F5">
-        <v>70.588235294117652</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="G5">
-        <v>11.764705882352942</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="H5">
         <v>5.882352941176471</v>
@@ -628,10 +628,10 @@
         <v>11.764705882352942</v>
       </c>
       <c r="J5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -675,10 +675,10 @@
         <v>13.333333333333334</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -689,19 +689,19 @@
         <v>45.454545454545453</v>
       </c>
       <c r="C7">
-        <v>18.181818181818183</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="D7">
         <v>18.181818181818183</v>
       </c>
       <c r="E7">
-        <v>18.181818181818183</v>
+        <v>9.0909090909090917</v>
       </c>
       <c r="F7">
-        <v>47.826086956521742</v>
+        <v>52.173913043478258</v>
       </c>
       <c r="G7">
-        <v>17.391304347826086</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="H7">
         <v>4.3478260869565215</v>
@@ -710,10 +710,10 @@
         <v>30.434782608695652</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="K7">
-        <v>13.333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L7">
         <v>6.666666666666667</v>
@@ -727,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>56.25</v>
+        <v>62.5</v>
       </c>
       <c r="C8">
-        <v>18.75</v>
+        <v>12.5</v>
       </c>
       <c r="D8">
         <v>18.75</v>
@@ -742,13 +742,13 @@
         <v>30</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="J8">
         <v>63.157894736842103</v>
@@ -792,16 +792,16 @@
         <v>11.235955056179776</v>
       </c>
       <c r="J9">
-        <v>70.930232558139537</v>
+        <v>73.255813953488371</v>
       </c>
       <c r="K9">
-        <v>20.930232558139537</v>
+        <v>18.604651162790699</v>
       </c>
       <c r="L9">
-        <v>1.1627906976744187</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="M9">
-        <v>6.9767441860465116</v>
+        <v>5.8139534883720927</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -821,13 +821,13 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="F10">
-        <v>48.387096774193552</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>17.741935483870968</v>
+        <v>20.967741935483872</v>
       </c>
       <c r="H10">
-        <v>20.967741935483872</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="I10">
         <v>12.903225806451612</v>
@@ -836,13 +836,13 @@
         <v>51.5625</v>
       </c>
       <c r="K10">
-        <v>17.1875</v>
+        <v>20.3125</v>
       </c>
       <c r="L10">
-        <v>17.1875</v>
+        <v>15.625</v>
       </c>
       <c r="M10">
-        <v>14.0625</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -891,10 +891,10 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>72.477064220183493</v>
+        <v>73.394495412844037</v>
       </c>
       <c r="C12">
-        <v>13.761467889908257</v>
+        <v>12.844036697247706</v>
       </c>
       <c r="D12">
         <v>7.3394495412844041</v>
@@ -903,28 +903,28 @@
         <v>6.4220183486238529</v>
       </c>
       <c r="F12">
-        <v>47.540983606557376</v>
+        <v>47.950819672131146</v>
       </c>
       <c r="G12">
-        <v>15.163934426229508</v>
+        <v>15.573770491803279</v>
       </c>
       <c r="H12">
-        <v>26.639344262295083</v>
+        <v>27.459016393442624</v>
       </c>
       <c r="I12">
-        <v>10.655737704918034</v>
+        <v>9.0163934426229506</v>
       </c>
       <c r="J12">
-        <v>46.031746031746032</v>
+        <v>46.560846560846564</v>
       </c>
       <c r="K12">
         <v>15.873015873015873</v>
       </c>
       <c r="L12">
-        <v>21.693121693121693</v>
+        <v>23.280423280423282</v>
       </c>
       <c r="M12">
-        <v>16.402116402116402</v>
+        <v>14.285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -962,10 +962,10 @@
         <v>35.135135135135137</v>
       </c>
       <c r="L13">
-        <v>13.513513513513514</v>
+        <v>16.216216216216218</v>
       </c>
       <c r="M13">
-        <v>24.324324324324323</v>
+        <v>21.621621621621621</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -973,25 +973,25 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="C14">
         <v>46.666666666666664</v>
       </c>
       <c r="D14">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>6.666666666666667</v>
       </c>
       <c r="F14">
-        <v>46.666666666666664</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>13.333333333333334</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I14">
         <v>20</v>
